--- a/biology/Médecine/Parité_(médecine)/Parité_(médecine).xlsx
+++ b/biology/Médecine/Parité_(médecine)/Parité_(médecine).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Parit%C3%A9_(m%C3%A9decine)</t>
+          <t>Parité_(médecine)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>La parité d'une femme est en gynécologie obstétrique le nombre de grossesses ayant atteint l'âge de viabilité (24 semaines). En démographie, c'est le nombre d'accouchements, bien que le terme soit parfois utilisé au sens de nombre d’enfants mis au monde, en incluant ou en excluant les mort-nés[1]
-« -pare, -parité » vient du latin  parus, de parere qui veut dire « engendrer »[2]. On retrouve ce suffixe dans « parturition » qui est l'action de mettre bas chez les mammifères et dont le terme pour l'humain est « accouchement ».
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>La parité d'une femme est en gynécologie obstétrique le nombre de grossesses ayant atteint l'âge de viabilité (24 semaines). En démographie, c'est le nombre d'accouchements, bien que le terme soit parfois utilisé au sens de nombre d’enfants mis au monde, en incluant ou en excluant les mort-nés
+« -pare, -parité » vient du latin  parus, de parere qui veut dire « engendrer ». On retrouve ce suffixe dans « parturition » qui est l'action de mettre bas chez les mammifères et dont le terme pour l'humain est « accouchement ».
 En français, le terme participe par son radical à la construction d'adjectifs :
 une nullipare est une femme dont la parité est nulle, qui n'a jamais accouché ;
 une primipare est une femme qui accouche ou a accouché pour la première fois ;
